--- a/vocabularies/paleomagnetism/1.2/paleomagnetism_1-2.xlsx
+++ b/vocabularies/paleomagnetism/1.2/paleomagnetism_1-2.xlsx
@@ -437,7 +437,7 @@
     <t>superconducting quantum interference device (SQUID) microscope</t>
   </si>
   <si>
-    <t>#squid#(squid)</t>
+    <t>#(squid)#superconducting quantum interference device#super-conducting quantum interference device</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/paleomagnetism/1.2/apparatus-laboratory_induced_remanent_magnetisation_measurement-microscope_magnetic_scanning-superconducting_quantum_interference_device_squid_microscope</t>
